--- a/Capstone_Task_Nhom 16.xlsx
+++ b/Capstone_Task_Nhom 16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberSoft\Frontend\capstone\capstone-airbnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E0374-3DBA-4136-B572-09E61226030F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6EBBE5-7900-498B-B2F5-4CAE736B4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Task Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>https://bc05-fe-capstone-airbnb.vercel.app/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Dgyqi9Ri3XI</t>
   </si>
 </sst>
 </file>
@@ -200,14 +203,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,7 +433,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7">
@@ -503,7 +506,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="7">
@@ -515,67 +518,67 @@
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -583,13 +586,16 @@
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -599,8 +605,9 @@
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{3C2B6578-2C26-47CE-9895-D9EB5F0C87E1}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{7E23BAD4-405D-4405-8DE3-DCA62D7CFA82}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{583701B4-24D8-47E0-B50B-3887690758AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>